--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1509802.913015578</v>
+        <v>1504932.735730842</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375792</v>
+        <v>8296541.918375795</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6277489.730141509</v>
+        <v>6277489.730141506</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I11" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.373700198487994</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>198.0003494586901</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>50.97331440018485</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.7848734220132</v>
+        <v>64.94019259618656</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>207.8918312087472</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>135.1329417326901</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H13" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I13" t="n">
-        <v>104.6770998313136</v>
+        <v>59.14379429299719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S13" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>93.25886515294415</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H14" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>19.11921903962453</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>77.03851849986194</v>
+        <v>37.30086177463661</v>
       </c>
       <c r="I15" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>170.8836040586646</v>
       </c>
       <c r="U15" t="n">
-        <v>117.0789810792358</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1754,7 +1754,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>145.9527069669256</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>67.11567047948814</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>104.6770998313136</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>239.7482902050479</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>78.66917630279269</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>11.0704316772596</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H18" t="n">
-        <v>33.92178437331575</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I18" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U18" t="n">
         <v>207.8918312087472</v>
@@ -1988,7 +1988,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>164.1119235152514</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.7030516679727</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2070,7 +2070,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>298.0323436097158</v>
       </c>
       <c r="D20" t="n">
-        <v>189.4911957073471</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>70.26350185470316</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -2174,13 +2174,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H21" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I21" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8918312087472</v>
+        <v>31.82800446804088</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
-        <v>189.2953856103229</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2307,7 +2307,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>17.67239357074127</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>191.3559542401897</v>
+        <v>215.2962941658548</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2417,7 +2417,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I24" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T24" t="n">
-        <v>170.8836040586655</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U24" t="n">
         <v>207.8918312087472</v>
@@ -2481,22 +2481,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>104.5139239499797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>160.29508180611</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>135.0956383738696</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>88.35175439144052</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I27" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.11574533565972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U28" t="n">
         <v>282.5352749748386</v>
@@ -2778,10 +2778,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.65634598909927</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>226.2353786589607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V29" t="n">
-        <v>32.47835510251355</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I30" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H31" t="n">
-        <v>55.1877997619041</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>221.7664124262197</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>224.0610515157839</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>222.2640171381858</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I33" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.0912503946672</v>
+        <v>141.0793585586554</v>
       </c>
       <c r="T34" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>11.58096836084849</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>333.7532509643931</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0518977182957</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>18.71916604488895</v>
       </c>
       <c r="E36" t="n">
-        <v>87.8062769442497</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H36" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U36" t="n">
         <v>207.8918312087472</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>61.11574533566008</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6804033018083</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>252.7192345459983</v>
+        <v>248.7552382803202</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>53.28417193567447</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.625858512588</v>
+        <v>99.85152688293839</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>79.03781834925782</v>
+        <v>27.94207173181113</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.6708174907576</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S40" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>203.4953229956658</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>138.211547675619</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>10.02403219175644</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>46.86249131774822</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.915760422358</v>
+        <v>44.527561695663</v>
       </c>
       <c r="I43" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U43" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>223.6139905055589</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>294.9749755220967</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,10 +3991,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H44" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>54.28788996576662</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>147.2771824027435</v>
       </c>
       <c r="D45" t="n">
-        <v>44.26917585070965</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>88.14007944648003</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.79323878018192</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="C11" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="F11" t="n">
-        <v>810.4196048386441</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="G11" t="n">
-        <v>399.2850785579561</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H11" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I11" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J11" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K11" t="n">
-        <v>199.2809258470409</v>
+        <v>738.437530095959</v>
       </c>
       <c r="L11" t="n">
-        <v>361.2656335236695</v>
+        <v>900.4222377725876</v>
       </c>
       <c r="M11" t="n">
-        <v>562.0899662643368</v>
+        <v>1101.246570513255</v>
       </c>
       <c r="N11" t="n">
-        <v>1005.484004506414</v>
+        <v>1308.319426359283</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.483413588091</v>
+        <v>1495.18453242897</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.877451830168</v>
+        <v>1632.243926624103</v>
       </c>
       <c r="Q11" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R11" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S11" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T11" t="n">
-        <v>1576.869034623823</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U11" t="n">
-        <v>1569.420852605148</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V11" t="n">
-        <v>1227.314043308666</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="W11" t="n">
-        <v>1227.314043308666</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="X11" t="n">
-        <v>1227.314043308666</v>
+        <v>939.6363677904275</v>
       </c>
       <c r="Y11" t="n">
-        <v>1227.314043308666</v>
+        <v>739.6360148018516</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>472.8374773120026</v>
+        <v>732.8882221499625</v>
       </c>
       <c r="C12" t="n">
-        <v>421.3492809481795</v>
+        <v>582.2339917100547</v>
       </c>
       <c r="D12" t="n">
-        <v>291.2603135696598</v>
+        <v>452.1450243315351</v>
       </c>
       <c r="E12" t="n">
-        <v>291.2603135696598</v>
+        <v>315.6985334424228</v>
       </c>
       <c r="F12" t="n">
-        <v>166.8285074527917</v>
+        <v>191.2667273255546</v>
       </c>
       <c r="G12" t="n">
-        <v>47.85388783459649</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="H12" t="n">
-        <v>47.85388783459649</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I12" t="n">
         <v>35.82982127208703</v>
@@ -5123,22 +5123,22 @@
         <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>335.3133915738323</v>
+        <v>588.6621519806971</v>
       </c>
       <c r="L12" t="n">
-        <v>477.0907524010973</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M12" t="n">
-        <v>655.1202095923981</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N12" t="n">
-        <v>1098.514247834475</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O12" t="n">
-        <v>1259.811742342462</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P12" t="n">
-        <v>1703.205780584539</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q12" t="n">
         <v>1748.895481510255</v>
@@ -5156,16 +5156,16 @@
         <v>1294.11601938213</v>
       </c>
       <c r="V12" t="n">
-        <v>1071.576017753197</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="W12" t="n">
-        <v>841.4587718864836</v>
+        <v>1063.998773515417</v>
       </c>
       <c r="X12" t="n">
-        <v>652.1516942364954</v>
+        <v>1063.998773515417</v>
       </c>
       <c r="Y12" t="n">
-        <v>472.8374773120026</v>
+        <v>884.6845565909239</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>738.3365904083578</v>
+        <v>736.1431757441011</v>
       </c>
       <c r="C13" t="n">
-        <v>738.3365904083578</v>
+        <v>565.9380578100903</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3365904083578</v>
+        <v>410.304944712605</v>
       </c>
       <c r="E13" t="n">
-        <v>582.7777782675603</v>
+        <v>410.304944712605</v>
       </c>
       <c r="F13" t="n">
-        <v>425.4518434805332</v>
+        <v>410.304944712605</v>
       </c>
       <c r="G13" t="n">
-        <v>288.953922538422</v>
+        <v>242.9606846209307</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5642655461412</v>
+        <v>95.57102762864986</v>
       </c>
       <c r="I13" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J13" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K13" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L13" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393996</v>
       </c>
       <c r="M13" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N13" t="n">
         <v>1196.939252046641</v>
@@ -5226,25 +5226,25 @@
         <v>1708.497712225302</v>
       </c>
       <c r="S13" t="n">
-        <v>1521.53685324079</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="T13" t="n">
-        <v>1289.705102228785</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="U13" t="n">
-        <v>1004.315935587534</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="V13" t="n">
-        <v>738.3365904083578</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="W13" t="n">
-        <v>738.3365904083578</v>
+        <v>1193.335559144475</v>
       </c>
       <c r="X13" t="n">
-        <v>738.3365904083578</v>
+        <v>959.2552369274578</v>
       </c>
       <c r="Y13" t="n">
-        <v>738.3365904083578</v>
+        <v>736.1431757441011</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>433.3421429823176</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="C14" t="n">
-        <v>433.3421429823176</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="D14" t="n">
-        <v>433.3421429823176</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="E14" t="n">
-        <v>433.3421429823176</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="F14" t="n">
-        <v>339.1412690904548</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G14" t="n">
-        <v>339.1412690904548</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H14" t="n">
         <v>35.82982127208703</v>
@@ -5281,22 +5281,22 @@
         <v>349.1973608293694</v>
       </c>
       <c r="K14" t="n">
-        <v>460.4337383187916</v>
+        <v>498.1717837268669</v>
       </c>
       <c r="L14" t="n">
-        <v>622.4184459954201</v>
+        <v>660.1564914034955</v>
       </c>
       <c r="M14" t="n">
-        <v>952.558913323271</v>
+        <v>860.9808241441626</v>
       </c>
       <c r="N14" t="n">
-        <v>1395.952951565348</v>
+        <v>1068.053679990191</v>
       </c>
       <c r="O14" t="n">
-        <v>1582.818057635035</v>
+        <v>1254.918786059878</v>
       </c>
       <c r="P14" t="n">
-        <v>1719.877451830168</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q14" t="n">
         <v>1791.491063604352</v>
@@ -5305,25 +5305,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T14" t="n">
-        <v>1791.491063604352</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="U14" t="n">
-        <v>1535.900592377455</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="V14" t="n">
-        <v>1193.793783080973</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="W14" t="n">
-        <v>822.7947480492608</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="X14" t="n">
-        <v>433.3421429823176</v>
+        <v>1651.883439689585</v>
       </c>
       <c r="Y14" t="n">
-        <v>433.3421429823176</v>
+        <v>1651.883439689585</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>412.7712945170124</v>
+        <v>615.1289542526936</v>
       </c>
       <c r="C15" t="n">
-        <v>262.1170640771047</v>
+        <v>464.4747238127858</v>
       </c>
       <c r="D15" t="n">
-        <v>262.1170640771047</v>
+        <v>334.3857564342661</v>
       </c>
       <c r="E15" t="n">
-        <v>125.6705731879924</v>
+        <v>197.9392655451538</v>
       </c>
       <c r="F15" t="n">
-        <v>125.6705731879924</v>
+        <v>73.50745942828563</v>
       </c>
       <c r="G15" t="n">
-        <v>125.6705731879924</v>
+        <v>73.50745942828563</v>
       </c>
       <c r="H15" t="n">
-        <v>47.85388783459649</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I15" t="n">
         <v>35.82982127208703</v>
@@ -5360,22 +5360,22 @@
         <v>249.431949475221</v>
       </c>
       <c r="K15" t="n">
-        <v>332.4795213379896</v>
+        <v>588.6621519806971</v>
       </c>
       <c r="L15" t="n">
-        <v>772.7863322531177</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M15" t="n">
-        <v>950.8157894444186</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N15" t="n">
-        <v>1142.922775819626</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O15" t="n">
-        <v>1586.316814061703</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P15" t="n">
-        <v>1703.205780584539</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q15" t="n">
         <v>1748.895481510255</v>
@@ -5384,25 +5384,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S15" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T15" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U15" t="n">
-        <v>1385.846171028101</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V15" t="n">
-        <v>1163.306169399168</v>
+        <v>1186.349612210356</v>
       </c>
       <c r="W15" t="n">
-        <v>933.1889235324547</v>
+        <v>956.2323663436432</v>
       </c>
       <c r="X15" t="n">
-        <v>743.8818458824665</v>
+        <v>766.9252886936549</v>
       </c>
       <c r="Y15" t="n">
-        <v>564.5676289579737</v>
+        <v>766.9252886936549</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>682.5857601148556</v>
+        <v>616.5222950014473</v>
       </c>
       <c r="C16" t="n">
-        <v>512.3806421808448</v>
+        <v>446.3171770674365</v>
       </c>
       <c r="D16" t="n">
-        <v>356.7475290833596</v>
+        <v>298.8902003331683</v>
       </c>
       <c r="E16" t="n">
-        <v>356.7475290833596</v>
+        <v>298.8902003331683</v>
       </c>
       <c r="F16" t="n">
-        <v>356.7475290833596</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="G16" t="n">
-        <v>288.953922538422</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H16" t="n">
         <v>141.5642655461412</v>
@@ -5436,52 +5436,52 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J16" t="n">
-        <v>69.09848475894704</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K16" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273072</v>
       </c>
       <c r="L16" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393996</v>
       </c>
       <c r="M16" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N16" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O16" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P16" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q16" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R16" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S16" t="n">
-        <v>1708.497712225303</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T16" t="n">
-        <v>1708.497712225303</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="U16" t="n">
-        <v>1423.108545584052</v>
+        <v>1319.141037978588</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.108545584052</v>
+        <v>1319.141037978588</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.778143515229</v>
+        <v>1035.810635909766</v>
       </c>
       <c r="X16" t="n">
-        <v>905.6978212982123</v>
+        <v>801.7303136927486</v>
       </c>
       <c r="Y16" t="n">
-        <v>682.5857601148556</v>
+        <v>801.7303136927486</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.4409401615283</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="C17" t="n">
-        <v>663.4409401615283</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="D17" t="n">
-        <v>277.999811378196</v>
+        <v>1326.586120373754</v>
       </c>
       <c r="E17" t="n">
-        <v>277.999811378196</v>
+        <v>924.0025954902986</v>
       </c>
       <c r="F17" t="n">
-        <v>277.999811378196</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="G17" t="n">
-        <v>35.82982127208704</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="H17" t="n">
-        <v>35.82982127208704</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I17" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J17" t="n">
-        <v>349.1973608293694</v>
+        <v>88.04454835761862</v>
       </c>
       <c r="K17" t="n">
-        <v>460.4337383187916</v>
+        <v>199.2809258470408</v>
       </c>
       <c r="L17" t="n">
-        <v>622.4184459954201</v>
+        <v>361.2656335236694</v>
       </c>
       <c r="M17" t="n">
-        <v>823.2427787360874</v>
+        <v>562.0899662643367</v>
       </c>
       <c r="N17" t="n">
-        <v>1030.315634582116</v>
+        <v>769.1628221103651</v>
       </c>
       <c r="O17" t="n">
-        <v>1217.180740651802</v>
+        <v>956.0279281800518</v>
       </c>
       <c r="P17" t="n">
-        <v>1354.240134846936</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q17" t="n">
-        <v>1753.753018196276</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R17" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S17" t="n">
-        <v>1791.491063604352</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="T17" t="n">
-        <v>1791.491063604352</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="U17" t="n">
-        <v>1791.491063604352</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="V17" t="n">
-        <v>1449.38425430787</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="W17" t="n">
-        <v>1449.38425430787</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="X17" t="n">
-        <v>1059.931649240927</v>
+        <v>1712.027249157086</v>
       </c>
       <c r="Y17" t="n">
-        <v>663.4409401615283</v>
+        <v>1712.027249157086</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>493.6508439403997</v>
+        <v>510.3482205210296</v>
       </c>
       <c r="C18" t="n">
-        <v>342.9966135004919</v>
+        <v>510.3482205210296</v>
       </c>
       <c r="D18" t="n">
-        <v>342.9966135004919</v>
+        <v>380.2592531425099</v>
       </c>
       <c r="E18" t="n">
-        <v>206.5501226113796</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F18" t="n">
-        <v>82.1183164945114</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="G18" t="n">
-        <v>82.1183164945114</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="H18" t="n">
         <v>47.8538878345965</v>
       </c>
       <c r="I18" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J18" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K18" t="n">
-        <v>137.7445263582622</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L18" t="n">
-        <v>580.8268251636582</v>
+        <v>474.2568821652545</v>
       </c>
       <c r="M18" t="n">
-        <v>1024.220863405735</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N18" t="n">
-        <v>1467.614901647813</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O18" t="n">
-        <v>1628.9123961558</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P18" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q18" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R18" t="n">
         <v>1791.491063604352</v>
@@ -5624,22 +5624,22 @@
         <v>1676.717469147192</v>
       </c>
       <c r="T18" t="n">
-        <v>1676.717469147192</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U18" t="n">
-        <v>1466.725720451488</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V18" t="n">
-        <v>1244.185718822555</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W18" t="n">
-        <v>1014.068472955842</v>
+        <v>841.4587718864836</v>
       </c>
       <c r="X18" t="n">
-        <v>824.7613953058537</v>
+        <v>841.4587718864836</v>
       </c>
       <c r="Y18" t="n">
-        <v>645.447178381361</v>
+        <v>662.1445549619909</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.3150327637701</v>
+        <v>267.7680153027242</v>
       </c>
       <c r="C19" t="n">
-        <v>340.5454130513949</v>
+        <v>267.7680153027242</v>
       </c>
       <c r="D19" t="n">
-        <v>340.5454130513949</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="E19" t="n">
-        <v>340.5454130513949</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="F19" t="n">
         <v>183.2194782643679</v>
@@ -5667,16 +5667,16 @@
         <v>183.2194782643679</v>
       </c>
       <c r="H19" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I19" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J19" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K19" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L19" t="n">
         <v>551.2290272393999</v>
@@ -5697,28 +5697,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.53685324079</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T19" t="n">
-        <v>1289.705102228785</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U19" t="n">
-        <v>1289.705102228785</v>
+        <v>1274.270145951096</v>
       </c>
       <c r="V19" t="n">
-        <v>1023.725757049609</v>
+        <v>1008.29080077192</v>
       </c>
       <c r="W19" t="n">
-        <v>740.395354980787</v>
+        <v>724.9603987030978</v>
       </c>
       <c r="X19" t="n">
-        <v>506.3150327637701</v>
+        <v>490.8800764860808</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.3150327637701</v>
+        <v>267.7680153027242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1395.000354524953</v>
+        <v>1164.901557345743</v>
       </c>
       <c r="C20" t="n">
-        <v>1001.824853027884</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="D20" t="n">
-        <v>810.4196048386441</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="E20" t="n">
-        <v>810.4196048386441</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="F20" t="n">
-        <v>810.4196048386441</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G20" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H20" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I20" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J20" t="n">
         <v>349.1973608293694</v>
@@ -5758,22 +5758,22 @@
         <v>460.4337383187916</v>
       </c>
       <c r="L20" t="n">
-        <v>681.7211189317087</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M20" t="n">
-        <v>882.545451672376</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N20" t="n">
-        <v>1089.618307518404</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O20" t="n">
-        <v>1276.483413588091</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P20" t="n">
-        <v>1719.877451830168</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R20" t="n">
         <v>1791.491063604352</v>
@@ -5785,19 +5785,19 @@
         <v>1791.491063604352</v>
       </c>
       <c r="U20" t="n">
-        <v>1791.491063604352</v>
+        <v>1535.900592377455</v>
       </c>
       <c r="V20" t="n">
-        <v>1791.491063604352</v>
+        <v>1535.900592377455</v>
       </c>
       <c r="W20" t="n">
-        <v>1791.491063604352</v>
+        <v>1164.901557345743</v>
       </c>
       <c r="X20" t="n">
-        <v>1791.491063604352</v>
+        <v>1164.901557345743</v>
       </c>
       <c r="Y20" t="n">
-        <v>1395.000354524953</v>
+        <v>1164.901557345743</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.6110717691624</v>
+        <v>786.2666876305956</v>
       </c>
       <c r="C21" t="n">
-        <v>516.6378375724926</v>
+        <v>635.6124571906878</v>
       </c>
       <c r="D21" t="n">
-        <v>386.5488701939729</v>
+        <v>505.5234898121681</v>
       </c>
       <c r="E21" t="n">
-        <v>250.1023793048606</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F21" t="n">
-        <v>125.6705731879924</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="G21" t="n">
         <v>125.6705731879924</v>
@@ -5828,28 +5828,28 @@
         <v>47.8538878345965</v>
       </c>
       <c r="I21" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J21" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K21" t="n">
-        <v>692.8259877172981</v>
+        <v>631.257734074794</v>
       </c>
       <c r="L21" t="n">
-        <v>834.603348544563</v>
+        <v>773.035094902059</v>
       </c>
       <c r="M21" t="n">
-        <v>1012.632805735864</v>
+        <v>951.0645520933598</v>
       </c>
       <c r="N21" t="n">
-        <v>1204.739792111071</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O21" t="n">
-        <v>1366.037286619058</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P21" t="n">
-        <v>1745.801362678636</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q21" t="n">
         <v>1791.491063604352</v>
@@ -5861,22 +5861,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T21" t="n">
-        <v>1618.881362534994</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U21" t="n">
-        <v>1408.889613839289</v>
+        <v>1759.341564141684</v>
       </c>
       <c r="V21" t="n">
-        <v>1186.349612210357</v>
+        <v>1536.801562512751</v>
       </c>
       <c r="W21" t="n">
-        <v>956.2323663436434</v>
+        <v>1306.684316646038</v>
       </c>
       <c r="X21" t="n">
-        <v>766.9252886936551</v>
+        <v>1117.37723899605</v>
       </c>
       <c r="Y21" t="n">
-        <v>587.6110717691624</v>
+        <v>938.0630220715569</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.5527992314076</v>
+        <v>621.8675735223278</v>
       </c>
       <c r="C22" t="n">
-        <v>504.3476812973968</v>
+        <v>621.8675735223278</v>
       </c>
       <c r="D22" t="n">
-        <v>348.7145681999116</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="E22" t="n">
-        <v>193.1557560591141</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="F22" t="n">
-        <v>35.82982127208704</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="G22" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H22" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J22" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K22" t="n">
         <v>254.5315649273076</v>
@@ -5919,43 +5919,43 @@
         <v>551.2290272393999</v>
       </c>
       <c r="M22" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N22" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O22" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P22" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q22" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="T22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="U22" t="n">
-        <v>1791.491063604352</v>
+        <v>1423.108545584051</v>
       </c>
       <c r="V22" t="n">
-        <v>1600.283603391905</v>
+        <v>1157.129200404876</v>
       </c>
       <c r="W22" t="n">
-        <v>1316.953201323082</v>
+        <v>873.7987983360531</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.872879106066</v>
+        <v>639.7184761190362</v>
       </c>
       <c r="Y22" t="n">
-        <v>859.7608179227088</v>
+        <v>621.8675735223278</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1275.936709778897</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="C23" t="n">
-        <v>1275.936709778897</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="D23" t="n">
-        <v>1275.936709778897</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3531848954412</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="F23" t="n">
-        <v>456.458746425419</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="G23" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H23" t="n">
         <v>45.32422014473102</v>
@@ -5989,22 +5989,22 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>541.8255907694258</v>
+        <v>919.5789839930596</v>
       </c>
       <c r="L23" t="n">
-        <v>1102.712815060472</v>
+        <v>1081.563691669688</v>
       </c>
       <c r="M23" t="n">
-        <v>1663.600039351518</v>
+        <v>1282.388024410355</v>
       </c>
       <c r="N23" t="n">
-        <v>1870.672895197547</v>
+        <v>1489.460880256384</v>
       </c>
       <c r="O23" t="n">
-        <v>2057.538001267234</v>
+        <v>1676.325986326071</v>
       </c>
       <c r="P23" t="n">
         <v>2194.597395462367</v>
@@ -6016,25 +6016,25 @@
         <v>2266.211007236551</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T23" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U23" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V23" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W23" t="n">
-        <v>2266.211007236551</v>
+        <v>962.5973812504317</v>
       </c>
       <c r="X23" t="n">
-        <v>2072.922164569693</v>
+        <v>745.1263770424976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1676.431455490294</v>
+        <v>348.6356679630987</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032402</v>
       </c>
       <c r="C24" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633323</v>
       </c>
       <c r="D24" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848128</v>
       </c>
       <c r="E24" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957005</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788322</v>
       </c>
       <c r="G24" t="n">
         <v>135.1649720606364</v>
@@ -6068,28 +6068,28 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J24" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K24" t="n">
-        <v>167.7231898711884</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L24" t="n">
-        <v>728.6104141622347</v>
+        <v>892.1913930801251</v>
       </c>
       <c r="M24" t="n">
-        <v>906.6398713535356</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N24" t="n">
-        <v>1098.746857728743</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O24" t="n">
-        <v>1659.634082019789</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P24" t="n">
-        <v>2220.521306310835</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2266.211007236551</v>
+        <v>2223.615425142454</v>
       </c>
       <c r="R24" t="n">
         <v>2266.211007236551</v>
@@ -6098,22 +6098,22 @@
         <v>2151.437412779391</v>
       </c>
       <c r="T24" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U24" t="n">
-        <v>1768.835963014328</v>
+        <v>1768.835963014329</v>
       </c>
       <c r="V24" t="n">
-        <v>1546.295961385395</v>
+        <v>1546.295961385396</v>
       </c>
       <c r="W24" t="n">
-        <v>1316.178715518682</v>
+        <v>1316.178715518683</v>
       </c>
       <c r="X24" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y24" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442016</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1205.017995148358</v>
+        <v>215.5293380787418</v>
       </c>
       <c r="C25" t="n">
-        <v>1034.812877214348</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="D25" t="n">
-        <v>879.1797641168623</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="E25" t="n">
-        <v>879.1797641168623</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="F25" t="n">
-        <v>721.8538293298352</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G25" t="n">
-        <v>721.8538293298352</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H25" t="n">
-        <v>616.2842091783406</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I25" t="n">
-        <v>510.5497649042864</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J25" t="n">
-        <v>543.8184283911464</v>
+        <v>78.59288363159101</v>
       </c>
       <c r="K25" t="n">
-        <v>729.2515085595069</v>
+        <v>264.0259637999515</v>
       </c>
       <c r="L25" t="n">
-        <v>1025.948970871599</v>
+        <v>560.7234261120439</v>
       </c>
       <c r="M25" t="n">
-        <v>1352.016839310357</v>
+        <v>886.7912945508018</v>
       </c>
       <c r="N25" t="n">
-        <v>1671.65919567884</v>
+        <v>1206.433650919285</v>
       </c>
       <c r="O25" t="n">
-        <v>1960.40013731212</v>
+        <v>1495.174592552565</v>
       </c>
       <c r="P25" t="n">
-        <v>2188.12202387377</v>
+        <v>1722.896479114214</v>
       </c>
       <c r="Q25" t="n">
-        <v>2266.211007236551</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="R25" t="n">
-        <v>2266.211007236551</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S25" t="n">
-        <v>2079.250148252038</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="T25" t="n">
-        <v>1847.418397240033</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="U25" t="n">
-        <v>1847.418397240033</v>
+        <v>1407.239487418415</v>
       </c>
       <c r="V25" t="n">
-        <v>1847.418397240033</v>
+        <v>1141.260142239239</v>
       </c>
       <c r="W25" t="n">
-        <v>1847.418397240033</v>
+        <v>857.9297401704167</v>
       </c>
       <c r="X25" t="n">
-        <v>1613.338075023016</v>
+        <v>623.8494179533998</v>
       </c>
       <c r="Y25" t="n">
-        <v>1390.22601383966</v>
+        <v>400.7373567700431</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1729.256020743468</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="C26" t="n">
-        <v>1336.080519246398</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="D26" t="n">
-        <v>1336.080519246398</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="E26" t="n">
-        <v>933.4969943629426</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="F26" t="n">
-        <v>516.6025558929203</v>
+        <v>456.458746425419</v>
       </c>
       <c r="G26" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H26" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I26" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J26" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K26" t="n">
-        <v>658.426171521309</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L26" t="n">
-        <v>1219.313395812355</v>
+        <v>631.9128448680641</v>
       </c>
       <c r="M26" t="n">
-        <v>1420.137728553022</v>
+        <v>832.7371776087314</v>
       </c>
       <c r="N26" t="n">
-        <v>1870.672895197547</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O26" t="n">
-        <v>2057.538001267234</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.597395462367</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q26" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R26" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S26" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T26" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U26" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V26" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W26" t="n">
-        <v>2129.750766454864</v>
+        <v>962.5973812504317</v>
       </c>
       <c r="X26" t="n">
-        <v>2129.750766454864</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="Y26" t="n">
-        <v>2129.750766454864</v>
+        <v>873.3531848954412</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032404</v>
+        <v>795.7610865032395</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633327</v>
+        <v>645.1068560633317</v>
       </c>
       <c r="D27" t="n">
-        <v>515.017888684813</v>
+        <v>515.0178886848121</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977957007</v>
+        <v>378.5713977956997</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788325</v>
+        <v>254.1395916788316</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1649720606374</v>
+        <v>135.1649720606364</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724146</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I27" t="n">
-        <v>45.324220144732</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J27" t="n">
-        <v>258.9263483478659</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K27" t="n">
-        <v>341.9739202106346</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L27" t="n">
-        <v>902.8611445016809</v>
+        <v>892.1913930801251</v>
       </c>
       <c r="M27" t="n">
-        <v>1383.188913631462</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N27" t="n">
-        <v>1575.295900006669</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O27" t="n">
-        <v>1736.593394514657</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.482361037493</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2223.615425142454</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S27" t="n">
-        <v>2151.437412779391</v>
+        <v>2151.43741277939</v>
       </c>
       <c r="T27" t="n">
-        <v>1978.827711710033</v>
+        <v>1978.827711710032</v>
       </c>
       <c r="U27" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V27" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W27" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X27" t="n">
-        <v>1126.871637868695</v>
+        <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442018</v>
+        <v>947.5574209442009</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>934.3104415280502</v>
+        <v>215.5293380787418</v>
       </c>
       <c r="C28" t="n">
-        <v>934.3104415280502</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="D28" t="n">
-        <v>778.677328430565</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="E28" t="n">
-        <v>623.1185162897675</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="F28" t="n">
-        <v>465.7925815027404</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G28" t="n">
-        <v>298.4483214110661</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I28" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J28" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159101</v>
       </c>
       <c r="K28" t="n">
         <v>264.0259637999515</v>
@@ -6414,22 +6414,22 @@
         <v>1800.985462476996</v>
       </c>
       <c r="T28" t="n">
-        <v>1800.985462476996</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="U28" t="n">
-        <v>1515.596295835745</v>
+        <v>1283.764544823739</v>
       </c>
       <c r="V28" t="n">
-        <v>1249.616950656569</v>
+        <v>1017.785199644564</v>
       </c>
       <c r="W28" t="n">
-        <v>966.2865485877464</v>
+        <v>734.4547975757414</v>
       </c>
       <c r="X28" t="n">
-        <v>966.2865485877464</v>
+        <v>500.3744753587245</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.3104415280502</v>
+        <v>277.2624141753678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>456.458746425419</v>
+        <v>734.076796746431</v>
       </c>
       <c r="C29" t="n">
-        <v>456.458746425419</v>
+        <v>734.076796746431</v>
       </c>
       <c r="D29" t="n">
-        <v>456.458746425419</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="E29" t="n">
-        <v>456.458746425419</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="F29" t="n">
-        <v>456.458746425419</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="G29" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H29" t="n">
         <v>45.32422014473102</v>
@@ -6469,22 +6469,22 @@
         <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>631.9128448680642</v>
+        <v>631.9128448680641</v>
       </c>
       <c r="M29" t="n">
-        <v>832.7371776087315</v>
+        <v>832.7371776087314</v>
       </c>
       <c r="N29" t="n">
-        <v>1393.624401899778</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>1954.511626190824</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P29" t="n">
-        <v>2091.571020385957</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q29" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R29" t="n">
         <v>2266.211007236551</v>
@@ -6499,16 +6499,16 @@
         <v>1675.703225578626</v>
       </c>
       <c r="V29" t="n">
-        <v>1642.896806283158</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W29" t="n">
-        <v>1642.896806283158</v>
+        <v>962.5973812504317</v>
       </c>
       <c r="X29" t="n">
-        <v>1253.444201216215</v>
+        <v>962.5973812504317</v>
       </c>
       <c r="Y29" t="n">
-        <v>856.9534921368158</v>
+        <v>962.5973812504317</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C30" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D30" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E30" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F30" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G30" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H30" t="n">
-        <v>57.34828670724073</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I30" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J30" t="n">
-        <v>258.926348347865</v>
+        <v>127.8961539396917</v>
       </c>
       <c r="K30" t="n">
-        <v>341.9739202106336</v>
+        <v>619.3838378446868</v>
       </c>
       <c r="L30" t="n">
-        <v>902.86114450168</v>
+        <v>761.1611986719518</v>
       </c>
       <c r="M30" t="n">
-        <v>1080.890601692981</v>
+        <v>939.1906558632526</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.997588068188</v>
+        <v>1131.29764223846</v>
       </c>
       <c r="O30" t="n">
-        <v>1833.884812359234</v>
+        <v>1292.595136746447</v>
       </c>
       <c r="P30" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q30" t="n">
         <v>2223.615425142454</v>
@@ -6575,19 +6575,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U30" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V30" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W30" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X30" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y30" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>739.7924503888032</v>
+        <v>687.589189949724</v>
       </c>
       <c r="C31" t="n">
-        <v>569.5873324547924</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="D31" t="n">
-        <v>413.9542193573072</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3954072165097</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="F31" t="n">
-        <v>101.0694724294826</v>
+        <v>360.0581372286862</v>
       </c>
       <c r="G31" t="n">
-        <v>101.0694724294826</v>
+        <v>192.7138771370119</v>
       </c>
       <c r="H31" t="n">
         <v>45.32422014473102</v>
@@ -6621,7 +6621,7 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J31" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159101</v>
       </c>
       <c r="K31" t="n">
         <v>264.0259637999515</v>
@@ -6654,19 +6654,19 @@
         <v>1382.192852480478</v>
       </c>
       <c r="U31" t="n">
-        <v>1382.192852480478</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V31" t="n">
-        <v>1382.192852480478</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="W31" t="n">
-        <v>1382.192852480478</v>
+        <v>872.7972086410252</v>
       </c>
       <c r="X31" t="n">
-        <v>1148.112530263461</v>
+        <v>872.7972086410252</v>
       </c>
       <c r="Y31" t="n">
-        <v>925.0004690801045</v>
+        <v>872.7972086410252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1865.716261525154</v>
+        <v>573.1447761834885</v>
       </c>
       <c r="C32" t="n">
-        <v>1865.716261525154</v>
+        <v>573.1447761834885</v>
       </c>
       <c r="D32" t="n">
-        <v>1639.391967064766</v>
+        <v>573.1447761834885</v>
       </c>
       <c r="E32" t="n">
-        <v>1236.808442181311</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="F32" t="n">
-        <v>819.9140037112882</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="G32" t="n">
-        <v>408.7794774306001</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H32" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I32" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J32" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K32" t="n">
-        <v>208.7753247196849</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L32" t="n">
-        <v>370.7600323963135</v>
+        <v>631.9128448680641</v>
       </c>
       <c r="M32" t="n">
-        <v>931.6472566873598</v>
+        <v>832.7371776087314</v>
       </c>
       <c r="N32" t="n">
-        <v>1492.534480978406</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O32" t="n">
-        <v>1729.638729692077</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P32" t="n">
-        <v>1866.69812388721</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q32" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R32" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S32" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T32" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U32" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V32" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W32" t="n">
-        <v>2266.211007236551</v>
+        <v>962.5973812504317</v>
       </c>
       <c r="X32" t="n">
-        <v>2266.211007236551</v>
+        <v>573.1447761834885</v>
       </c>
       <c r="Y32" t="n">
-        <v>2266.211007236551</v>
+        <v>573.1447761834885</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>258.926348347865</v>
       </c>
       <c r="K33" t="n">
-        <v>341.9739202106336</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>902.86114450168</v>
+        <v>892.1913930801251</v>
       </c>
       <c r="M33" t="n">
-        <v>1080.890601692981</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1455.741005417704</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>1617.038499925691</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P33" t="n">
-        <v>2177.925724216738</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q33" t="n">
         <v>2223.615425142453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1569.741104221616</v>
+        <v>215.5293380787418</v>
       </c>
       <c r="C34" t="n">
-        <v>1399.535986287606</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="D34" t="n">
-        <v>1243.90287319012</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="E34" t="n">
-        <v>1088.344061049323</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="F34" t="n">
-        <v>931.0181262622957</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G34" t="n">
-        <v>763.6738661706214</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H34" t="n">
-        <v>616.2842091783406</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I34" t="n">
-        <v>510.5497649042864</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J34" t="n">
-        <v>543.8184283911464</v>
+        <v>78.59288363159101</v>
       </c>
       <c r="K34" t="n">
-        <v>729.2515085595069</v>
+        <v>264.0259637999515</v>
       </c>
       <c r="L34" t="n">
-        <v>1025.948970871599</v>
+        <v>560.7234261120439</v>
       </c>
       <c r="M34" t="n">
-        <v>1352.016839310357</v>
+        <v>886.7912945508018</v>
       </c>
       <c r="N34" t="n">
-        <v>1671.65919567884</v>
+        <v>1206.433650919285</v>
       </c>
       <c r="O34" t="n">
-        <v>1960.40013731212</v>
+        <v>1495.174592552565</v>
       </c>
       <c r="P34" t="n">
-        <v>2188.12202387377</v>
+        <v>1722.896479114214</v>
       </c>
       <c r="Q34" t="n">
-        <v>2266.211007236551</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="R34" t="n">
-        <v>2266.211007236551</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S34" t="n">
-        <v>2079.250148252038</v>
+        <v>1658.481059892495</v>
       </c>
       <c r="T34" t="n">
-        <v>1847.418397240033</v>
+        <v>1426.64930888049</v>
       </c>
       <c r="U34" t="n">
-        <v>1847.418397240033</v>
+        <v>1141.260142239239</v>
       </c>
       <c r="V34" t="n">
-        <v>1581.439052060857</v>
+        <v>1141.260142239239</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.439052060857</v>
+        <v>857.9297401704167</v>
       </c>
       <c r="X34" t="n">
-        <v>1569.741104221616</v>
+        <v>623.8494179533998</v>
       </c>
       <c r="Y34" t="n">
-        <v>1569.741104221616</v>
+        <v>400.7373567700431</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1248.483286122634</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="C35" t="n">
-        <v>855.3077846255648</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="D35" t="n">
-        <v>855.3077846255648</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="E35" t="n">
-        <v>452.7242597421093</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="F35" t="n">
-        <v>35.82982127208704</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G35" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H35" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I35" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J35" t="n">
-        <v>88.04454835761865</v>
+        <v>299.30188103138</v>
       </c>
       <c r="K35" t="n">
-        <v>519.7364112550802</v>
+        <v>410.5382585208023</v>
       </c>
       <c r="L35" t="n">
-        <v>681.7211189317087</v>
+        <v>572.5229661974308</v>
       </c>
       <c r="M35" t="n">
-        <v>882.545451672376</v>
+        <v>773.3472989380981</v>
       </c>
       <c r="N35" t="n">
-        <v>1089.618307518404</v>
+        <v>980.4201547841266</v>
       </c>
       <c r="O35" t="n">
-        <v>1276.483413588091</v>
+        <v>1167.285260853813</v>
       </c>
       <c r="P35" t="n">
-        <v>1719.877451830168</v>
+        <v>1304.344655048947</v>
       </c>
       <c r="Q35" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R35" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S35" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T35" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U35" t="n">
-        <v>1644.973995202033</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.973995202033</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="W35" t="n">
-        <v>1644.973995202033</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="X35" t="n">
-        <v>1644.973995202033</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="Y35" t="n">
-        <v>1248.483286122634</v>
+        <v>1200.983281946427</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4244383975592</v>
+        <v>472.8374773120026</v>
       </c>
       <c r="C36" t="n">
-        <v>457.7702079576515</v>
+        <v>322.1832468720948</v>
       </c>
       <c r="D36" t="n">
-        <v>457.7702079576515</v>
+        <v>303.2749983419039</v>
       </c>
       <c r="E36" t="n">
-        <v>369.0769989230558</v>
+        <v>166.8285074527917</v>
       </c>
       <c r="F36" t="n">
-        <v>244.6451928061876</v>
+        <v>166.8285074527917</v>
       </c>
       <c r="G36" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H36" t="n">
         <v>47.8538878345965</v>
       </c>
       <c r="I36" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J36" t="n">
         <v>54.69695449549359</v>
       </c>
       <c r="K36" t="n">
-        <v>498.0909927375707</v>
+        <v>498.0909927375706</v>
       </c>
       <c r="L36" t="n">
         <v>639.8683535648356</v>
@@ -7034,34 +7034,34 @@
         <v>1171.302291639331</v>
       </c>
       <c r="P36" t="n">
-        <v>1378.762417405294</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q36" t="n">
-        <v>1748.895481510255</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R36" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S36" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T36" t="n">
-        <v>1791.491063604352</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U36" t="n">
-        <v>1581.499314908648</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V36" t="n">
-        <v>1358.959313279715</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W36" t="n">
-        <v>1128.842067413002</v>
+        <v>841.4587718864836</v>
       </c>
       <c r="X36" t="n">
-        <v>939.5349897630133</v>
+        <v>652.1516942364954</v>
       </c>
       <c r="Y36" t="n">
-        <v>760.2207728385206</v>
+        <v>472.8374773120026</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.8160426554059</v>
+        <v>267.7680153027242</v>
       </c>
       <c r="C37" t="n">
-        <v>924.8160426554059</v>
+        <v>97.56289736871338</v>
       </c>
       <c r="D37" t="n">
-        <v>769.1829295579207</v>
+        <v>97.56289736871338</v>
       </c>
       <c r="E37" t="n">
-        <v>613.6241174171232</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="F37" t="n">
-        <v>456.2981826300962</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="G37" t="n">
-        <v>288.9539225384219</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H37" t="n">
-        <v>141.564265546141</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I37" t="n">
-        <v>35.82982127208682</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J37" t="n">
-        <v>69.09848475894682</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K37" t="n">
-        <v>254.5315649273073</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L37" t="n">
-        <v>551.2290272393997</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M37" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N37" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O37" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P37" t="n">
         <v>1713.402080241571</v>
@@ -7122,25 +7122,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S37" t="n">
-        <v>1604.530204619839</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T37" t="n">
-        <v>1604.530204619839</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U37" t="n">
-        <v>1442.226766941245</v>
+        <v>1274.270145951096</v>
       </c>
       <c r="V37" t="n">
-        <v>1442.226766941245</v>
+        <v>1008.29080077192</v>
       </c>
       <c r="W37" t="n">
-        <v>1158.896364872423</v>
+        <v>724.9603987030978</v>
       </c>
       <c r="X37" t="n">
-        <v>924.8160426554059</v>
+        <v>490.8800764860808</v>
       </c>
       <c r="Y37" t="n">
-        <v>924.8160426554059</v>
+        <v>267.7680153027242</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1005.54774945801</v>
+        <v>1001.543712826012</v>
       </c>
       <c r="C38" t="n">
         <v>750.2757953711427</v>
@@ -7168,25 +7168,25 @@
         <v>339.1412690904548</v>
       </c>
       <c r="H38" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I38" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J38" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K38" t="n">
-        <v>460.4337383187916</v>
+        <v>498.1717837268669</v>
       </c>
       <c r="L38" t="n">
-        <v>622.4184459954201</v>
+        <v>660.1564914034955</v>
       </c>
       <c r="M38" t="n">
-        <v>860.9808241441631</v>
+        <v>860.9808241441626</v>
       </c>
       <c r="N38" t="n">
-        <v>1068.053679990192</v>
+        <v>1068.053679990191</v>
       </c>
       <c r="O38" t="n">
         <v>1254.918786059878</v>
@@ -7219,7 +7219,7 @@
         <v>1402.038458537409</v>
       </c>
       <c r="Y38" t="n">
-        <v>1005.54774945801</v>
+        <v>1402.038458537409</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>703.6425926361039</v>
+        <v>334.9546091636166</v>
       </c>
       <c r="C39" t="n">
-        <v>552.9883621961961</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="D39" t="n">
-        <v>422.8993948176765</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="E39" t="n">
-        <v>369.0769989230558</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="F39" t="n">
-        <v>244.6451928061876</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="G39" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H39" t="n">
         <v>47.8538878345965</v>
       </c>
       <c r="I39" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J39" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K39" t="n">
-        <v>137.7445263582622</v>
+        <v>631.257734074794</v>
       </c>
       <c r="L39" t="n">
-        <v>279.5218871855272</v>
+        <v>773.035094902059</v>
       </c>
       <c r="M39" t="n">
-        <v>657.1819181323929</v>
+        <v>951.0645520933598</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.57595637447</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O39" t="n">
-        <v>1261.873450882457</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P39" t="n">
-        <v>1378.762417405294</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q39" t="n">
-        <v>1748.895481510255</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R39" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S39" t="n">
-        <v>1676.717469147192</v>
+        <v>1690.630935439767</v>
       </c>
       <c r="T39" t="n">
-        <v>1676.717469147192</v>
+        <v>1518.021234370409</v>
       </c>
       <c r="U39" t="n">
-        <v>1676.717469147192</v>
+        <v>1308.029485674705</v>
       </c>
       <c r="V39" t="n">
-        <v>1454.177467518259</v>
+        <v>1085.489484045772</v>
       </c>
       <c r="W39" t="n">
-        <v>1224.060221651546</v>
+        <v>855.372238179059</v>
       </c>
       <c r="X39" t="n">
-        <v>1034.753144001558</v>
+        <v>666.0651605290707</v>
       </c>
       <c r="Y39" t="n">
-        <v>855.4389270770653</v>
+        <v>486.7509436045779</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.9693093990392</v>
+        <v>231.3983962443787</v>
       </c>
       <c r="C40" t="n">
-        <v>516.1331292482737</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5000161507884</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5000161507884</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="F40" t="n">
         <v>203.1740813637614</v>
       </c>
       <c r="G40" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H40" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I40" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J40" t="n">
-        <v>69.09848475894694</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K40" t="n">
-        <v>254.5315649273077</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272394001</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M40" t="n">
-        <v>877.2968956781581</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N40" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O40" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P40" t="n">
         <v>1713.402080241571</v>
@@ -7356,28 +7356,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R40" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S40" t="n">
-        <v>1604.530204619839</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="T40" t="n">
-        <v>1604.530204619839</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="U40" t="n">
-        <v>1319.141037978588</v>
+        <v>1423.108545584052</v>
       </c>
       <c r="V40" t="n">
-        <v>1053.161692799413</v>
+        <v>1157.129200404876</v>
       </c>
       <c r="W40" t="n">
-        <v>1053.161692799413</v>
+        <v>873.7987983360536</v>
       </c>
       <c r="X40" t="n">
-        <v>819.0813705823958</v>
+        <v>639.7184761190366</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.9693093990392</v>
+        <v>416.6064149356799</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1651.883439689585</v>
+        <v>1019.997282861242</v>
       </c>
       <c r="C41" t="n">
-        <v>1651.883439689585</v>
+        <v>626.8217813641727</v>
       </c>
       <c r="D41" t="n">
-        <v>1266.442310906253</v>
+        <v>241.3806525808404</v>
       </c>
       <c r="E41" t="n">
-        <v>863.8587860227972</v>
+        <v>241.3806525808404</v>
       </c>
       <c r="F41" t="n">
-        <v>446.964347552775</v>
+        <v>241.3806525808404</v>
       </c>
       <c r="G41" t="n">
-        <v>35.82982127208703</v>
+        <v>241.3806525808404</v>
       </c>
       <c r="H41" t="n">
         <v>35.82982127208703</v>
@@ -7411,28 +7411,28 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J41" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K41" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L41" t="n">
-        <v>407.5721232041485</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M41" t="n">
-        <v>608.3964559448158</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N41" t="n">
-        <v>1051.790494186893</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O41" t="n">
-        <v>1495.18453242897</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P41" t="n">
-        <v>1632.243926624103</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R41" t="n">
         <v>1791.491063604352</v>
@@ -7447,16 +7447,16 @@
         <v>1791.491063604352</v>
       </c>
       <c r="V41" t="n">
-        <v>1651.883439689585</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="W41" t="n">
-        <v>1651.883439689585</v>
+        <v>1420.492028572639</v>
       </c>
       <c r="X41" t="n">
-        <v>1651.883439689585</v>
+        <v>1420.492028572639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1651.883439689585</v>
+        <v>1420.492028572639</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321.0411428710412</v>
+        <v>453.0195099796268</v>
       </c>
       <c r="C42" t="n">
-        <v>170.3869124311335</v>
+        <v>302.365279539719</v>
       </c>
       <c r="D42" t="n">
-        <v>170.3869124311335</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E42" t="n">
-        <v>170.3869124311335</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="F42" t="n">
-        <v>45.95510631426525</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="G42" t="n">
-        <v>45.95510631426525</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H42" t="n">
         <v>35.82982127208703</v>
@@ -7490,22 +7490,22 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J42" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>137.7445263582622</v>
+        <v>692.8259877172979</v>
       </c>
       <c r="L42" t="n">
-        <v>279.5218871855272</v>
+        <v>834.6033485445629</v>
       </c>
       <c r="M42" t="n">
-        <v>722.9159254276042</v>
+        <v>1012.632805735864</v>
       </c>
       <c r="N42" t="n">
-        <v>1166.309963669681</v>
+        <v>1204.739792111071</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.607458177668</v>
+        <v>1366.037286619058</v>
       </c>
       <c r="P42" t="n">
         <v>1703.205780584539</v>
@@ -7535,7 +7535,7 @@
         <v>652.1516942364954</v>
       </c>
       <c r="Y42" t="n">
-        <v>472.8374773120026</v>
+        <v>604.8158444205881</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1095.021160589417</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="C43" t="n">
-        <v>924.8160426554061</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="D43" t="n">
-        <v>769.1829295579209</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="E43" t="n">
-        <v>613.6241174171234</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="F43" t="n">
-        <v>456.2981826300963</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="G43" t="n">
-        <v>288.953922538422</v>
+        <v>80.80715631821127</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I43" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J43" t="n">
-        <v>69.09848475894704</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K43" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393998</v>
       </c>
       <c r="M43" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781577</v>
       </c>
       <c r="N43" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O43" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q43" t="n">
         <v>1791.491063604352</v>
@@ -7596,25 +7596,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.491063604352</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.491063604352</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U43" t="n">
-        <v>1506.101896963101</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="V43" t="n">
-        <v>1506.101896963101</v>
+        <v>821.3299417874072</v>
       </c>
       <c r="W43" t="n">
-        <v>1506.101896963101</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.229179280718</v>
+        <v>303.9192175015679</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.229179280718</v>
+        <v>80.80715631821127</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="C44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="D44" t="n">
-        <v>1158.619232443933</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="E44" t="n">
-        <v>756.035707560477</v>
+        <v>863.8587860227972</v>
       </c>
       <c r="F44" t="n">
-        <v>339.1412690904548</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G44" t="n">
-        <v>339.1412690904548</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H44" t="n">
         <v>35.82982127208703</v>
@@ -7648,52 +7648,52 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J44" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K44" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L44" t="n">
-        <v>361.2656335236695</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M44" t="n">
-        <v>696.0299811508806</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N44" t="n">
-        <v>1139.424019392958</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O44" t="n">
-        <v>1582.818057635035</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P44" t="n">
-        <v>1719.877451830168</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R44" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T44" t="n">
-        <v>1456.573753173323</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U44" t="n">
-        <v>1456.573753173323</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="V44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="W44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="X44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
       <c r="Y44" t="n">
-        <v>1456.573753173323</v>
+        <v>1266.442310906253</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>321.0411428710412</v>
       </c>
       <c r="C45" t="n">
-        <v>170.3869124311335</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="D45" t="n">
-        <v>125.6705731879924</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E45" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="F45" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="G45" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H45" t="n">
-        <v>47.85388783459649</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I45" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J45" t="n">
-        <v>249.431949475221</v>
+        <v>187.863695832717</v>
       </c>
       <c r="K45" t="n">
-        <v>332.4795213379896</v>
+        <v>631.257734074794</v>
       </c>
       <c r="L45" t="n">
-        <v>474.2568821652546</v>
+        <v>773.035094902059</v>
       </c>
       <c r="M45" t="n">
-        <v>652.2863393565553</v>
+        <v>951.0645520933598</v>
       </c>
       <c r="N45" t="n">
-        <v>859.013286194482</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.407324436559</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P45" t="n">
-        <v>1745.801362678636</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q45" t="n">
         <v>1791.491063604352</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.7809142646785</v>
+        <v>553.1285717170565</v>
       </c>
       <c r="C46" t="n">
-        <v>429.5757963306677</v>
+        <v>382.9234537830457</v>
       </c>
       <c r="D46" t="n">
-        <v>340.5454130513949</v>
+        <v>227.2903406855605</v>
       </c>
       <c r="E46" t="n">
-        <v>340.5454130513949</v>
+        <v>227.2903406855605</v>
       </c>
       <c r="F46" t="n">
-        <v>183.2194782643679</v>
+        <v>69.96440589853341</v>
       </c>
       <c r="G46" t="n">
-        <v>183.2194782643679</v>
+        <v>69.96440589853341</v>
       </c>
       <c r="H46" t="n">
-        <v>35.82982127208703</v>
+        <v>69.96440589853341</v>
       </c>
       <c r="I46" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J46" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K46" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L46" t="n">
         <v>551.2290272393999</v>
@@ -7821,37 +7821,37 @@
         <v>1196.939252046641</v>
       </c>
       <c r="O46" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P46" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q46" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R46" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.491063604352</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T46" t="n">
-        <v>1791.491063604352</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U46" t="n">
-        <v>1791.491063604352</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V46" t="n">
-        <v>1525.511718425176</v>
+        <v>738.3365904083578</v>
       </c>
       <c r="W46" t="n">
-        <v>1242.181316356353</v>
+        <v>738.3365904083578</v>
       </c>
       <c r="X46" t="n">
-        <v>1008.100994139336</v>
+        <v>738.3365904083578</v>
       </c>
       <c r="Y46" t="n">
-        <v>784.9889329559797</v>
+        <v>738.3365904083578</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>238.7082650465137</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>84.98414445655601</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>309.4289333807512</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>2.862495187719901</v>
+        <v>258.7703339825329</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>329.8031027467074</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8929,16 +8929,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>38.1192377859347</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>130.6223581688723</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>238.7082650465137</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9989026724944</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>258.7703339825329</v>
       </c>
       <c r="L15" t="n">
-        <v>301.5448990786496</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>284.9460037718077</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>301.9099574543698</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>52.11814045842952</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>304.3484222001323</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>258.7703339825326</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>59.90168983463485</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>309.4289333807513</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>280.8119108860279</v>
       </c>
       <c r="R20" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>363.9863296760691</v>
+        <v>301.7961744816207</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.5304136734762</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>27.98796440657267</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>336.4144101512535</v>
+        <v>454.192774547095</v>
       </c>
       <c r="L23" t="n">
-        <v>402.9318349640583</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>385.0626413547106</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>13.9989026724944</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>20.69117640432549</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>423.343296428062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>448.4830886547571</v>
+        <v>316.1293569293297</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>454.192774547095</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>402.9318349640583</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>245.9215260590869</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>419.5253181429963</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>305.3518302408894</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>316.1293569293288</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>377.8001194155148</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>419.5253181429963</v>
       </c>
       <c r="Q29" t="n">
-        <v>104.0670455317272</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>64.34828340561025</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>403.6259896798575</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>229.4464094289572</v>
+        <v>448.4830886547571</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>50.7466087312973</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>419.5253181429963</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>184.5893104540566</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>448.4830886547571</v>
+        <v>316.1293569293288</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>213.3912451250115</v>
       </c>
       <c r="K35" t="n">
-        <v>323.69240950307</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>309.4289333807513</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>91.48601943750157</v>
+        <v>134.5118599365892</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>27.98796440657267</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>38.1192377859347</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>38.11923778593501</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>13.9989026724944</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>301.7961744816207</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>201.6470441975403</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>27.98796440657267</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>46.77423200048386</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>238.7082650465137</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>259.1201335074649</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>38.11923778593498</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>253.8253049160301</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>261.3225817010446</v>
+        <v>222.5045731743884</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>135.2929443298423</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>238.7082650465137</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>259.1201335074649</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>280.8119108860279</v>
       </c>
       <c r="R44" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>134.5118599365893</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>14.76763683102979</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>284.9460037718077</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>329.8031027467074</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>27.98796440657267</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U11" t="n">
-        <v>245.6608663161397</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>194.5254525299148</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>98.17437373532385</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>52.84468082582666</v>
       </c>
       <c r="H12" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>30.53787575806749</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.53330553831645</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>319.4666289323778</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4758086907236</v>
+        <v>193.3565896510991</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.73765672522533</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>90.81285012951135</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.124074999584792</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>98.55514701126943</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.5134335018853</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>167.2748908128332</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I17" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.0923286359944</v>
+        <v>40.4231523332017</v>
       </c>
       <c r="T17" t="n">
         <v>212.4758086907236</v>
@@ -23791,16 +23791,16 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>124.0115943029616</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>43.11673412654618</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>4.39114323941925</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>70.37373029853769</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.6708174907576</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>91.21140287238285</v>
       </c>
       <c r="D20" t="n">
-        <v>192.0955217881518</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>212.4758086907236</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>78.88418628080554</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>113.625858512588</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>176.0638267407063</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>185.0912503946672</v>
@@ -24183,10 +24183,10 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>74.02416611706113</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>203.2085470007818</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>194.202124776084</v>
+        <v>170.261784850419</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H25" t="n">
-        <v>41.40183647237835</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5352749748386</v>
+        <v>122.2401931687286</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>232.1934063075258</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>297.2063246248332</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>122.2401931687286</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T28" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.2245945824238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>170.2544195953222</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>306.2073861010032</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>90.72796066045393</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.6770998313136</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>58.7306856219144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>157.525665979715</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>176.2936724964351</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.01189183601181</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.1585506339982</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>64.8044386702278</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I35" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>107.982668796332</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>110.0689116598455</v>
       </c>
       <c r="E36" t="n">
-        <v>47.27574903597144</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>92.88747868372943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T37" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>121.8548716730303</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>136.5245119361003</v>
+        <v>140.4885082017785</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>81.79785404454668</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.77433162964961</v>
       </c>
       <c r="T39" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>89.46524840541285</v>
+        <v>140.5609950228595</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T40" t="n">
         <v>229.5134335018853</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H41" t="n">
-        <v>300.2783333401841</v>
+        <v>96.78301034451823</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
-        <v>200.4741935278978</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H42" t="n">
-        <v>67.0144863081055</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I42" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>130.6585834374996</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>101.388198726695</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S43" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.125528489287859</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>86.61174197340222</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>284.3978512377502</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.870505732765196</v>
       </c>
       <c r="D45" t="n">
-        <v>84.51890185402482</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -25961,10 +25961,10 @@
         <v>117.7848734220132</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.93670252003037</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26040,10 +26040,10 @@
         <v>165.6708174907576</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6770998313136</v>
+        <v>70.88386105113173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452578.5509061347</v>
+        <v>452578.5509061346</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452578.5509061347</v>
+        <v>452578.5509061345</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>452578.5509061347</v>
+        <v>452578.5509061346</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>452578.5509061346</v>
+        <v>452578.5509061347</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>527458.0544027941</v>
+        <v>527458.0544027942</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>527458.054402794</v>
+        <v>527458.0544027943</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>527458.0544027943</v>
+        <v>527458.0544027942</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527458.054402794</v>
+        <v>527458.0544027942</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452578.5509061347</v>
+        <v>452578.5509061346</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452578.5509061347</v>
+        <v>452578.5509061346</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452578.5509061344</v>
+        <v>452578.5509061347</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>575677.5082070946</v>
       </c>
       <c r="D2" t="n">
-        <v>575677.5082070945</v>
+        <v>575677.5082070944</v>
       </c>
       <c r="E2" t="n">
+        <v>341184.2331526831</v>
+      </c>
+      <c r="F2" t="n">
         <v>341184.233152683</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>341184.2331526831</v>
-      </c>
-      <c r="G2" t="n">
-        <v>341184.2331526829</v>
       </c>
       <c r="H2" t="n">
         <v>341184.2331526831</v>
@@ -26340,19 +26340,19 @@
         <v>386136.1861895301</v>
       </c>
       <c r="K2" t="n">
-        <v>386136.1861895302</v>
+        <v>386136.1861895304</v>
       </c>
       <c r="L2" t="n">
-        <v>386136.1861895304</v>
+        <v>386136.1861895305</v>
       </c>
       <c r="M2" t="n">
-        <v>341184.2331526832</v>
+        <v>341184.2331526831</v>
       </c>
       <c r="N2" t="n">
         <v>341184.2331526831</v>
       </c>
       <c r="O2" t="n">
-        <v>341184.2331526832</v>
+        <v>341184.233152683</v>
       </c>
       <c r="P2" t="n">
         <v>341184.2331526831</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31559.50053265449</v>
+        <v>31559.50053265451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="C4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="D4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="E4" t="n">
-        <v>47810.6475848695</v>
+        <v>47810.64758486952</v>
       </c>
       <c r="F4" t="n">
         <v>47810.64758486951</v>
       </c>
       <c r="G4" t="n">
+        <v>47810.64758486951</v>
+      </c>
+      <c r="H4" t="n">
         <v>47810.64758486953</v>
       </c>
-      <c r="H4" t="n">
-        <v>47810.64758486952</v>
-      </c>
       <c r="I4" t="n">
-        <v>69395.7030873348</v>
+        <v>69395.70308733483</v>
       </c>
       <c r="J4" t="n">
-        <v>69395.7030873348</v>
+        <v>69395.70308733483</v>
       </c>
       <c r="K4" t="n">
-        <v>69395.70308733481</v>
+        <v>69395.70308733484</v>
       </c>
       <c r="L4" t="n">
-        <v>69395.7030873348</v>
+        <v>69395.70308733483</v>
       </c>
       <c r="M4" t="n">
+        <v>47810.64758486951</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47810.64758486951</v>
+      </c>
+      <c r="O4" t="n">
         <v>47810.64758486953</v>
       </c>
-      <c r="N4" t="n">
-        <v>47810.64758486952</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47810.6475848695</v>
-      </c>
       <c r="P4" t="n">
-        <v>47810.6475848695</v>
+        <v>47810.64758486953</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160749.7895850621</v>
+        <v>160745.4600172755</v>
       </c>
       <c r="C6" t="n">
-        <v>160749.7895850622</v>
+        <v>160745.4600172756</v>
       </c>
       <c r="D6" t="n">
-        <v>160749.7895850621</v>
+        <v>160745.4600172754</v>
       </c>
       <c r="E6" t="n">
-        <v>-279751.787973839</v>
+        <v>-280488.9090261703</v>
       </c>
       <c r="F6" t="n">
-        <v>255254.3271375882</v>
+        <v>254517.2060852567</v>
       </c>
       <c r="G6" t="n">
-        <v>255254.3271375881</v>
+        <v>254517.2060852569</v>
       </c>
       <c r="H6" t="n">
-        <v>255254.3271375883</v>
+        <v>254517.2060852568</v>
       </c>
       <c r="I6" t="n">
-        <v>239845.9809961063</v>
+        <v>239249.3347970151</v>
       </c>
       <c r="J6" t="n">
-        <v>271405.4815287606</v>
+        <v>270808.8353296692</v>
       </c>
       <c r="K6" t="n">
-        <v>271405.4815287606</v>
+        <v>270808.8353296695</v>
       </c>
       <c r="L6" t="n">
-        <v>271405.4815287608</v>
+        <v>270808.8353296696</v>
       </c>
       <c r="M6" t="n">
-        <v>173218.1695922033</v>
+        <v>172481.0485398717</v>
       </c>
       <c r="N6" t="n">
-        <v>255254.3271375883</v>
+        <v>254517.2060852568</v>
       </c>
       <c r="O6" t="n">
-        <v>255254.3271375884</v>
+        <v>254517.2060852567</v>
       </c>
       <c r="P6" t="n">
-        <v>255254.3271375883</v>
+        <v>254517.2060852568</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="F3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="G3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="H3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="I3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="J3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="K3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="L3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="M3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="N3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="O3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="P3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>447.8727659010879</v>
       </c>
       <c r="G4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="H4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="I4" t="n">
         <v>566.5527518091377</v>
@@ -26822,10 +26822,10 @@
         <v>566.5527518091377</v>
       </c>
       <c r="M4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="N4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="O4" t="n">
         <v>447.8727659010879</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6799859080497</v>
+        <v>118.6799859080498</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H11" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I11" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J11" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K11" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L11" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M11" t="n">
         <v>352.5779129519366</v>
@@ -31779,7 +31779,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P11" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q11" t="n">
         <v>216.8356800084767</v>
@@ -31837,7 +31837,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I12" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J12" t="n">
         <v>101.5021676600066</v>
@@ -31855,7 +31855,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O12" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P12" t="n">
         <v>205.1530279736952</v>
@@ -31873,7 +31873,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H13" t="n">
         <v>8.008005105762912</v>
@@ -31919,10 +31919,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J13" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K13" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L13" t="n">
         <v>133.9089115538309</v>
@@ -31952,7 +31952,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H14" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I14" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J14" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K14" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L14" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M14" t="n">
         <v>352.5779129519366</v>
@@ -32016,7 +32016,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P14" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q14" t="n">
         <v>216.8356800084767</v>
@@ -32074,7 +32074,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I15" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J15" t="n">
         <v>101.5021676600066</v>
@@ -32092,7 +32092,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O15" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P15" t="n">
         <v>205.1530279736952</v>
@@ -32110,7 +32110,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H16" t="n">
         <v>8.008005105762912</v>
@@ -32156,10 +32156,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J16" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K16" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L16" t="n">
         <v>133.9089115538309</v>
@@ -32189,7 +32189,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,19 +32229,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H17" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I17" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J17" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K17" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L17" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M17" t="n">
         <v>352.5779129519366</v>
@@ -32253,7 +32253,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P17" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q17" t="n">
         <v>216.8356800084767</v>
@@ -32311,7 +32311,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I18" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J18" t="n">
         <v>101.5021676600066</v>
@@ -32329,7 +32329,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O18" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P18" t="n">
         <v>205.1530279736952</v>
@@ -32347,7 +32347,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H19" t="n">
         <v>8.008005105762912</v>
@@ -32393,10 +32393,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J19" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K19" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L19" t="n">
         <v>133.9089115538309</v>
@@ -32426,7 +32426,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H20" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I20" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J20" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K20" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L20" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M20" t="n">
         <v>352.5779129519366</v>
@@ -32490,7 +32490,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P20" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q20" t="n">
         <v>216.8356800084767</v>
@@ -32548,7 +32548,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I21" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J21" t="n">
         <v>101.5021676600066</v>
@@ -32566,7 +32566,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O21" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P21" t="n">
         <v>205.1530279736952</v>
@@ -32584,7 +32584,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H22" t="n">
         <v>8.008005105762912</v>
@@ -32630,10 +32630,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J22" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K22" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L22" t="n">
         <v>133.9089115538309</v>
@@ -32663,7 +32663,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,19 +32703,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H23" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I23" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J23" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K23" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L23" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M23" t="n">
         <v>352.5779129519366</v>
@@ -32727,7 +32727,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P23" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q23" t="n">
         <v>216.8356800084767</v>
@@ -32785,7 +32785,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I24" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J24" t="n">
         <v>101.5021676600066</v>
@@ -32803,7 +32803,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O24" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P24" t="n">
         <v>205.1530279736952</v>
@@ -32821,7 +32821,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H25" t="n">
         <v>8.008005105762912</v>
@@ -32867,10 +32867,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J25" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K25" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L25" t="n">
         <v>133.9089115538309</v>
@@ -32900,7 +32900,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,19 +32940,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H26" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I26" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J26" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K26" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L26" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M26" t="n">
         <v>352.5779129519366</v>
@@ -32964,7 +32964,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P26" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q26" t="n">
         <v>216.8356800084767</v>
@@ -33022,7 +33022,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I27" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J27" t="n">
         <v>101.5021676600066</v>
@@ -33040,7 +33040,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O27" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P27" t="n">
         <v>205.1530279736952</v>
@@ -33058,7 +33058,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H28" t="n">
         <v>8.008005105762912</v>
@@ -33104,10 +33104,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J28" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K28" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L28" t="n">
         <v>133.9089115538309</v>
@@ -33137,7 +33137,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,19 +33177,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H29" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I29" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J29" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K29" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L29" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M29" t="n">
         <v>352.5779129519366</v>
@@ -33201,7 +33201,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P29" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q29" t="n">
         <v>216.8356800084767</v>
@@ -33259,7 +33259,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I30" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J30" t="n">
         <v>101.5021676600066</v>
@@ -33277,7 +33277,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O30" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P30" t="n">
         <v>205.1530279736952</v>
@@ -33295,7 +33295,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H31" t="n">
         <v>8.008005105762912</v>
@@ -33341,10 +33341,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J31" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K31" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L31" t="n">
         <v>133.9089115538309</v>
@@ -33374,7 +33374,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,19 +33414,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H32" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I32" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J32" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K32" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L32" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M32" t="n">
         <v>352.5779129519366</v>
@@ -33438,7 +33438,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P32" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q32" t="n">
         <v>216.8356800084767</v>
@@ -33496,7 +33496,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I33" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J33" t="n">
         <v>101.5021676600066</v>
@@ -33514,7 +33514,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O33" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P33" t="n">
         <v>205.1530279736952</v>
@@ -33532,7 +33532,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H34" t="n">
         <v>8.008005105762912</v>
@@ -33578,10 +33578,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J34" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K34" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L34" t="n">
         <v>133.9089115538309</v>
@@ -33611,7 +33611,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,19 +33651,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H35" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I35" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J35" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K35" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L35" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M35" t="n">
         <v>352.5779129519366</v>
@@ -33675,7 +33675,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P35" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q35" t="n">
         <v>216.8356800084767</v>
@@ -33733,7 +33733,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I36" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J36" t="n">
         <v>101.5021676600066</v>
@@ -33751,7 +33751,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O36" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P36" t="n">
         <v>205.1530279736952</v>
@@ -33769,7 +33769,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H37" t="n">
         <v>8.008005105762912</v>
@@ -33815,10 +33815,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J37" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K37" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L37" t="n">
         <v>133.9089115538309</v>
@@ -33848,7 +33848,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,19 +33888,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H38" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I38" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J38" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K38" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L38" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M38" t="n">
         <v>352.5779129519366</v>
@@ -33912,7 +33912,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P38" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q38" t="n">
         <v>216.8356800084767</v>
@@ -33970,7 +33970,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I39" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J39" t="n">
         <v>101.5021676600066</v>
@@ -33988,7 +33988,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O39" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P39" t="n">
         <v>205.1530279736952</v>
@@ -34006,7 +34006,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H40" t="n">
         <v>8.008005105762912</v>
@@ -34052,10 +34052,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J40" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K40" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L40" t="n">
         <v>133.9089115538309</v>
@@ -34085,7 +34085,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,19 +34125,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H41" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I41" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J41" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K41" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L41" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M41" t="n">
         <v>352.5779129519366</v>
@@ -34149,7 +34149,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P41" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q41" t="n">
         <v>216.8356800084767</v>
@@ -34207,7 +34207,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I42" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J42" t="n">
         <v>101.5021676600066</v>
@@ -34225,7 +34225,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O42" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P42" t="n">
         <v>205.1530279736952</v>
@@ -34243,7 +34243,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H43" t="n">
         <v>8.008005105762912</v>
@@ -34289,10 +34289,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J43" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K43" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L43" t="n">
         <v>133.9089115538309</v>
@@ -34322,7 +34322,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,19 +34362,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H44" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I44" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J44" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K44" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L44" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M44" t="n">
         <v>352.5779129519366</v>
@@ -34386,7 +34386,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P44" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q44" t="n">
         <v>216.8356800084767</v>
@@ -34444,7 +34444,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I45" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J45" t="n">
         <v>101.5021676600066</v>
@@ -34462,7 +34462,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O45" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P45" t="n">
         <v>205.1530279736952</v>
@@ -34480,7 +34480,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H46" t="n">
         <v>8.008005105762912</v>
@@ -34526,10 +34526,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J46" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K46" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L46" t="n">
         <v>133.9089115538309</v>
@@ -34559,7 +34559,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K11" t="n">
-        <v>112.3599772620427</v>
+        <v>393.1718881480704</v>
       </c>
       <c r="L11" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M11" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N11" t="n">
-        <v>447.8727659010879</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O11" t="n">
-        <v>273.736776850179</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P11" t="n">
-        <v>447.8727659010879</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.33698159008458</v>
+        <v>72.33698159008455</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>86.74893141273871</v>
+        <v>342.6567702075517</v>
       </c>
       <c r="L12" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M12" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N12" t="n">
-        <v>447.8727659010879</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O12" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P12" t="n">
-        <v>447.8727659010879</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R12" t="n">
         <v>43.02584049908781</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K13" t="n">
         <v>187.3061415842025</v>
@@ -35649,25 +35649,25 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K14" t="n">
-        <v>112.3599772620427</v>
+        <v>150.4792150479773</v>
       </c>
       <c r="L14" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M14" t="n">
-        <v>333.4752195230816</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N14" t="n">
-        <v>447.8727659010879</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O14" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P14" t="n">
-        <v>138.4438325203367</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K15" t="n">
-        <v>83.88643622501881</v>
+        <v>342.6567702075517</v>
       </c>
       <c r="L15" t="n">
-        <v>444.7543544597254</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M15" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N15" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O15" t="n">
-        <v>447.8727659010879</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P15" t="n">
-        <v>118.0696631543806</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R15" t="n">
         <v>43.02584049908781</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K16" t="n">
         <v>187.3061415842025</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>316.5328682396791</v>
+        <v>52.74214857124403</v>
       </c>
       <c r="K17" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L17" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M17" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N17" t="n">
         <v>209.1645008545742</v>
@@ -35901,13 +35901,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P17" t="n">
-        <v>138.4438325203367</v>
+        <v>440.3537899747064</v>
       </c>
       <c r="Q17" t="n">
-        <v>403.5483670195359</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11923778593513</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K18" t="n">
         <v>83.88643622501881</v>
       </c>
       <c r="L18" t="n">
-        <v>447.5578775812081</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M18" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N18" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O18" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P18" t="n">
-        <v>118.0696631543806</v>
+        <v>376.8399971369132</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K19" t="n">
         <v>187.3061415842025</v>
@@ -36123,13 +36123,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K20" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L20" t="n">
-        <v>223.5226066797142</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M20" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N20" t="n">
         <v>209.1645008545742</v>
@@ -36138,13 +36138,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P20" t="n">
-        <v>447.872765901088</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.33698159008458</v>
+        <v>353.1488924761125</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K21" t="n">
-        <v>447.872765901088</v>
+        <v>385.6826107066395</v>
       </c>
       <c r="L21" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M21" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N21" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O21" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6000768278568</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K22" t="n">
         <v>187.3061415842025</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7743874132962</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="L23" t="n">
-        <v>566.5527518091377</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M23" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N23" t="n">
         <v>209.1645008545742</v>
@@ -36375,10 +36375,10 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P23" t="n">
-        <v>138.4438325203367</v>
+        <v>523.5064738750473</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.33698159008458</v>
+        <v>72.33698159008455</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
-        <v>104.5776126293443</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L24" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M24" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N24" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O24" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P24" t="n">
-        <v>566.5527518091377</v>
+        <v>434.1990200837103</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K25" t="n">
         <v>187.3061415842025</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K26" t="n">
-        <v>566.5527518091377</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L26" t="n">
-        <v>566.5527518091377</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M26" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N26" t="n">
-        <v>455.086026913661</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O26" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P26" t="n">
-        <v>138.4438325203367</v>
+        <v>557.9691506633329</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K27" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M27" t="n">
-        <v>485.1795647775568</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N27" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O27" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P27" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q27" t="n">
-        <v>373.8717819242029</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R27" t="n">
         <v>43.02584049908781</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K28" t="n">
         <v>187.3061415842025</v>
@@ -36834,28 +36834,28 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L29" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M29" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N29" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O29" t="n">
-        <v>566.5527518091377</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P29" t="n">
-        <v>138.4438325203367</v>
+        <v>557.9691506633329</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.4040271218118</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>215.7597254577111</v>
+        <v>83.40599373228353</v>
       </c>
       <c r="K30" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M30" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N30" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O30" t="n">
+        <v>162.9267621292801</v>
+      </c>
+      <c r="P30" t="n">
         <v>566.5527518091377</v>
       </c>
-      <c r="P30" t="n">
-        <v>347.5160725833378</v>
-      </c>
       <c r="Q30" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R30" t="n">
         <v>43.02584049908781</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K31" t="n">
         <v>187.3061415842025</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K32" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L32" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M32" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N32" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O32" t="n">
-        <v>239.4992411249202</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P32" t="n">
-        <v>138.4438325203367</v>
+        <v>557.9691506633329</v>
       </c>
       <c r="Q32" t="n">
-        <v>403.5483670195359</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K33" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L33" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M33" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N33" t="n">
-        <v>378.6367714391144</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O33" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P33" t="n">
-        <v>566.5527518091377</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R33" t="n">
         <v>43.02584049908781</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K34" t="n">
         <v>187.3061415842025</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.74214857124406</v>
+        <v>266.1333936962556</v>
       </c>
       <c r="K35" t="n">
-        <v>436.0523867651127</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L35" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M35" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N35" t="n">
         <v>209.1645008545742</v>
@@ -37323,13 +37323,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P35" t="n">
-        <v>447.872765901088</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q35" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>19.05771032667329</v>
       </c>
       <c r="K36" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="L36" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M36" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N36" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O36" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P36" t="n">
-        <v>209.5556825918821</v>
+        <v>252.5815230909697</v>
       </c>
       <c r="Q36" t="n">
-        <v>373.8717819242029</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R36" t="n">
-        <v>43.02584049908781</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K37" t="n">
         <v>187.3061415842025</v>
@@ -37545,13 +37545,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K38" t="n">
-        <v>112.3599772620427</v>
+        <v>150.4792150479773</v>
       </c>
       <c r="L38" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M38" t="n">
-        <v>240.9720991401444</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N38" t="n">
         <v>209.1645008545742</v>
@@ -37560,10 +37560,10 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P38" t="n">
-        <v>138.4438325203367</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q38" t="n">
-        <v>403.5483670195359</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K39" t="n">
-        <v>83.88643622501881</v>
+        <v>385.6826107066395</v>
       </c>
       <c r="L39" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M39" t="n">
-        <v>381.4747787342077</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N39" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O39" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P39" t="n">
-        <v>118.0696631543806</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q39" t="n">
-        <v>373.8717819242029</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R39" t="n">
-        <v>43.02584049908781</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K40" t="n">
         <v>187.3061415842025</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K41" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L41" t="n">
-        <v>210.3951488455633</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M41" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N41" t="n">
-        <v>447.8727659010879</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O41" t="n">
-        <v>447.8727659010879</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P41" t="n">
-        <v>138.4438325203367</v>
+        <v>176.5630703062716</v>
       </c>
       <c r="Q41" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R41" t="n">
-        <v>88.51871232935821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
-        <v>83.88643622501881</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="L42" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M42" t="n">
-        <v>447.8727659010879</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N42" t="n">
-        <v>447.8727659010879</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O42" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P42" t="n">
-        <v>379.3922448554252</v>
+        <v>340.574236328769</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.15121305627825</v>
+        <v>46.15121305627822</v>
       </c>
       <c r="R42" t="n">
         <v>43.02584049908781</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K43" t="n">
         <v>187.3061415842025</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
-        <v>112.3599772620427</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L44" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M44" t="n">
-        <v>338.1458056840517</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N44" t="n">
-        <v>447.8727659010879</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O44" t="n">
-        <v>447.8727659010879</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P44" t="n">
-        <v>138.4438325203367</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.33698159008458</v>
+        <v>353.1488924761125</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>215.7597254577111</v>
+        <v>153.5695702632626</v>
       </c>
       <c r="K45" t="n">
-        <v>83.88643622501881</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="L45" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M45" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N45" t="n">
-        <v>208.8150978160876</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O45" t="n">
-        <v>447.8727659010879</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P45" t="n">
-        <v>447.8727659010879</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K46" t="n">
         <v>187.3061415842025</v>
@@ -38195,7 +38195,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.87776097250641</v>
+        <v>78.877760972506</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
